--- a/data/trans_bre/P1801_2016_2023-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P1801_2016_2023-Dificultad-trans_bre.xlsx
@@ -592,13 +592,13 @@
         <v>12.80304336080303</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>13.12616726709553</v>
+        <v>13.12616726709554</v>
       </c>
       <c r="E4" s="6" t="n">
         <v>0.2887218076779027</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>0.3183157779679286</v>
+        <v>0.318315777967929</v>
       </c>
     </row>
     <row r="5">
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>9.024392707765506</v>
+        <v>8.949271474597055</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>6.947291483260853</v>
+        <v>7.30069635559866</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0.191072976123759</v>
+        <v>0.1954752153952497</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.1513030062670948</v>
+        <v>0.1643553032056236</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>16.89721143634359</v>
+        <v>17.04779443655487</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>18.52633096477524</v>
+        <v>18.71122776059496</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.3952716271666382</v>
+        <v>0.4098482857334699</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.4958573319158848</v>
+        <v>0.4990962869502782</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         <v>10.25206315146498</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>9.889561980992328</v>
+        <v>9.889561980992333</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>0.2185285295920749</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>0.2429495404193752</v>
+        <v>0.2429495404193754</v>
       </c>
     </row>
     <row r="8">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>5.237674394886269</v>
+        <v>5.92584189364044</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>5.682845322866757</v>
+        <v>5.885934359780713</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.1064999536248598</v>
+        <v>0.122533285729324</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.1310662023274559</v>
+        <v>0.1359665029554967</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>15.0708499243818</v>
+        <v>14.93356461860053</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>14.42910122421689</v>
+        <v>14.34359611264264</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.3410332940294293</v>
+        <v>0.3423379678416887</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.3870252135604285</v>
+        <v>0.3772945307077193</v>
       </c>
     </row>
     <row r="10">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>7.651572307674269</v>
+        <v>7.193103070749607</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.125475054460397</v>
+        <v>2.110836811911084</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>0.1498921392664861</v>
+        <v>0.1383994301339694</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>0.04221903410742036</v>
+        <v>0.03986379154507935</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>17.62885862757452</v>
+        <v>17.43815291601268</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>11.12969786283483</v>
+        <v>10.63211538324252</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>0.3861953625054099</v>
+        <v>0.3743259379208886</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.2378199828045402</v>
+        <v>0.2218949821004833</v>
       </c>
     </row>
     <row r="13">
@@ -784,13 +784,13 @@
         <v>4.406177249706361</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>5.404957880832894</v>
+        <v>5.404957880832906</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>0.0978090178052128</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>0.09507182474225749</v>
+        <v>0.0950718247422577</v>
       </c>
     </row>
     <row r="14">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-2.070917917166809</v>
+        <v>-1.801201555586029</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5266417399051139</v>
+        <v>0.7620829781475555</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.04801412169542476</v>
+        <v>-0.03895515796433589</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.008201515479782526</v>
+        <v>0.01227567787406448</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>10.9266879810957</v>
+        <v>11.32359060746388</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>9.771775984354187</v>
+        <v>10.201522289663</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.2560292019019597</v>
+        <v>0.2711884774067664</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1781560339801354</v>
+        <v>0.1880314977971811</v>
       </c>
     </row>
     <row r="16">
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>8.178277140991478</v>
+        <v>8.399116763250618</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>5.243616928485433</v>
+        <v>5.163500052410553</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>0.1692020012349092</v>
+        <v>0.1753390458280166</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.105417113887374</v>
+        <v>0.1046433919518945</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>13.20363088332453</v>
+        <v>13.18205930208876</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>10.00235379615112</v>
+        <v>9.953603806291135</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>0.2929761883825878</v>
+        <v>0.2916217823708747</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.2145132252788101</v>
+        <v>0.2127861181034426</v>
       </c>
     </row>
     <row r="19">
